--- a/Strandbeest_01.xlsx
+++ b/Strandbeest_01.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="154">
   <si>
     <t>Straandbeest</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>https://www.amazon.com/gp/product/B000LQDN52</t>
+  </si>
+  <si>
+    <t>lengths are in inches</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -810,6 +813,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,24 +852,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5804,7 +5810,7 @@
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="65" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5812,7 +5818,7 @@
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="65"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -5821,7 +5827,7 @@
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="65" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5829,7 +5835,7 @@
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="65"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -7543,13 +7549,13 @@
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -8327,19 +8333,19 @@
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="22"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:18" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -9831,7 +9837,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9865,21 +9871,23 @@
         <v>88</v>
       </c>
       <c r="I1" s="16"/>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="25"/>
+      <c r="N1" s="72" t="s">
+        <v>153</v>
+      </c>
       <c r="O1" s="25"/>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:19" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -10306,7 +10314,7 @@
         <f>E11*$H$25</f>
         <v>13.129102844638927</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="55" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10347,7 +10355,7 @@
         <f t="shared" si="10"/>
         <v>17.129102844638926</v>
       </c>
-      <c r="M12" s="62" t="s">
+      <c r="M12" s="55" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10702,7 +10710,7 @@
       <c r="M19" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="34">
         <f>J19+J20</f>
         <v>33.023053774638583</v>
       </c>
@@ -10764,7 +10772,10 @@
         <v>19.548358862144383</v>
       </c>
       <c r="M20" s="22"/>
-      <c r="N20" s="34"/>
+      <c r="N20" s="25">
+        <f>SUM(N14:N19)</f>
+        <v>72.188566902909855</v>
+      </c>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
       <c r="R20" s="30"/>
@@ -10801,9 +10812,11 @@
         <v>0.74835886214441616</v>
       </c>
       <c r="M21" s="22"/>
-      <c r="N21" s="25">
-        <f>SUM(N14:N19)</f>
-        <v>72.188566902909855</v>
+      <c r="N21" s="35">
+        <v>12</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
@@ -10829,12 +10842,6 @@
         <v>33.023053774638583</v>
       </c>
       <c r="M22" s="22"/>
-      <c r="N22" s="35">
-        <v>12</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>111</v>
-      </c>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
       <c r="R22" s="30"/>
@@ -10874,7 +10881,7 @@
       <c r="L24" s="25"/>
       <c r="M24" s="19"/>
       <c r="N24" s="20">
-        <f>N9*N10+N21*N22</f>
+        <f>N9*N10+N20*N21</f>
         <v>988.47914843064098</v>
       </c>
       <c r="O24" s="20" t="s">
@@ -11536,21 +11543,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="59" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="59" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
       <c r="N1" s="43" t="s">
         <v>138</v>
       </c>
@@ -11586,10 +11593,10 @@
       <c r="J2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="58"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="9" t="s">
         <v>121</v>
       </c>
@@ -11765,54 +11772,54 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
+    <row r="7" spans="1:19" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
         <v>10</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58">
         <v>0.38</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="59">
         <v>130</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="58">
         <v>1.68</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="59">
         <v>332</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="58">
         <v>5.9</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="59">
         <v>10</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="60">
         <f>K7/25.4</f>
         <v>0.39370078740157483</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="58">
         <f>1.2/2.2</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="N7" s="68" t="s">
+      <c r="N7" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="O7" s="71" t="s">
+      <c r="O7" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="62">
         <v>60</v>
       </c>
-      <c r="Q7" s="70" t="s">
+      <c r="Q7" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="R7" s="70" t="s">
+      <c r="R7" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="S7" s="63" t="s">
+      <c r="S7" s="56" t="s">
         <v>143</v>
       </c>
     </row>
